--- a/qa.xlsx
+++ b/qa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\PycharmProjects\internetProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D86516C-09BB-4305-888C-F765F847B804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4C71E0-6DD4-4811-ADF3-4F1E7588DDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="3705" windowWidth="18705" windowHeight="10095" xr2:uid="{FE40923E-B6CD-43DC-ADCD-0AFB58BED0FB}"/>
+    <workbookView xWindow="8625" yWindow="1485" windowWidth="18705" windowHeight="10095" xr2:uid="{FE40923E-B6CD-43DC-ADCD-0AFB58BED0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>What is the area of Guadeloupe?</t>
   </si>
   <si>
-    <t xml:space="preserve">1,628 km squared </t>
-  </si>
-  <si>
     <t>2,586.4 km squared</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Bhutan, India, Moldova,  Sint Maarten,  United States</t>
-  </si>
-  <si>
     <t>1942-11-20</t>
   </si>
   <si>
@@ -251,6 +245,12 @@
   </si>
   <si>
     <t>How many presidents were born in Iceland?</t>
+  </si>
+  <si>
+    <t>1,628 km squared</t>
+  </si>
+  <si>
+    <t>Bhutan, India, Moldova, Sint Maarten, United States</t>
   </si>
 </sst>
 </file>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5DB2EA-CAFF-4333-A57B-FF15E41828F8}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -721,150 +721,150 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1">
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -880,66 +880,66 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">

--- a/qa.xlsx
+++ b/qa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\PycharmProjects\internetProj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TAU\CS\WebDataManagement\project1\proj1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D86516C-09BB-4305-888C-F765F847B804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814767B2-610D-49BB-90B6-7818D6EAA638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="3705" windowWidth="18705" windowHeight="10095" xr2:uid="{FE40923E-B6CD-43DC-ADCD-0AFB58BED0FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE40923E-B6CD-43DC-ADCD-0AFB58BED0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>What is the area of Guadeloupe?</t>
   </si>
   <si>
-    <t xml:space="preserve">1,628 km squared </t>
-  </si>
-  <si>
     <t>2,586.4 km squared</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Bhutan, India, Moldova,  Sint Maarten,  United States</t>
-  </si>
-  <si>
     <t>1942-11-20</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>President of Marshall Islands</t>
   </si>
   <si>
-    <t>Parliamentary, Semi-constitutional monarchy, Unitary state</t>
-  </si>
-  <si>
     <t>How many Dictatorship are also Authoritarian?</t>
   </si>
   <si>
@@ -245,6 +236,15 @@
   </si>
   <si>
     <t>djibouti, rwanda</t>
+  </si>
+  <si>
+    <t>Islamic state, Parliamentary, Semi-constitutional monarchy, Unitary state</t>
+  </si>
+  <si>
+    <t>Bhutan, India, Moldova, Sint Maarten, United States</t>
+  </si>
+  <si>
+    <t>1,628 km squared</t>
   </si>
   <si>
     <t>How many Absolute monarchy are also Unitary state?</t>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5DB2EA-CAFF-4333-A57B-FF15E41828F8}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -721,111 +721,111 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1"/>
     </row>
@@ -837,29 +837,29 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -880,66 +880,66 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
